--- a/wash_P/SLO.xlsx
+++ b/wash_P/SLO.xlsx
@@ -77865,7 +77865,7 @@
         <v>0</v>
       </c>
       <c r="CP25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ25" t="n">
         <v>0</v>
